--- a/Step2_Data/data_table.xlsx
+++ b/Step2_Data/data_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT_A\u3302070_Assignment_1\Step2_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B1E7F-41FD-4F3A-87E3-B3F900B73A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA774311-EBEA-46EA-AE5A-59A446702183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,8 +109,17 @@
     <t>Input (Numeric)</t>
   </si>
   <si>
-    <r>
-      <t>0g</t>
+    <t>Detects weight of food in the bowl</t>
+  </si>
+  <si>
+    <t>Servo motor</t>
+  </si>
+  <si>
+    <t>Output (Action)</t>
+  </si>
+  <si>
+    <r>
+      <t>ON</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +129,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -128,21 +137,39 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>150g</t>
-    </r>
-  </si>
-  <si>
-    <t>Detects weight of food in the bowl</t>
-  </si>
-  <si>
-    <t>Servo motor</t>
-  </si>
-  <si>
-    <t>Output (Action)</t>
-  </si>
-  <si>
-    <r>
-      <t>ON</t>
+      <t>OFF</t>
+    </r>
+  </si>
+  <si>
+    <t>Activates to release food</t>
+  </si>
+  <si>
+    <t>Alert system (e.g., LED or message)</t>
+  </si>
+  <si>
+    <t>Output (Notification)</t>
+  </si>
+  <si>
+    <t>ALERT: Food Not Eaten</t>
+  </si>
+  <si>
+    <t>Notifies staff if something’s wrong</t>
+  </si>
+  <si>
+    <t>Output (Text)</t>
+  </si>
+  <si>
+    <t>Fed at 08:00, food eaten</t>
+  </si>
+  <si>
+    <t>Keeps record of feeding results</t>
+  </si>
+  <si>
+    <t>Input (Boolean)</t>
+  </si>
+  <si>
+    <r>
+      <t>0g</t>
     </r>
     <r>
       <rPr>
@@ -152,7 +179,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -160,35 +187,8 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>OFF</t>
-    </r>
-  </si>
-  <si>
-    <t>Activates to release food</t>
-  </si>
-  <si>
-    <t>Alert system (e.g., LED or message)</t>
-  </si>
-  <si>
-    <t>Output (Notification)</t>
-  </si>
-  <si>
-    <t>ALERT: Food Not Eaten</t>
-  </si>
-  <si>
-    <t>Notifies staff if something’s wrong</t>
-  </si>
-  <si>
-    <t>Output (Text)</t>
-  </si>
-  <si>
-    <t>Fed at 08:00, food eaten</t>
-  </si>
-  <si>
-    <t>Keeps record of feeding results</t>
-  </si>
-  <si>
-    <t>Input (Boolean)</t>
+      <t>160g</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -563,7 +563,7 @@
     <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="28.8">
+    <row r="5" spans="3:6">
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="72">
+    <row r="6" spans="3:6" ht="28.8">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,12 +591,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="72">
+    <row r="7" spans="3:6" ht="28.8">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -605,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="57.6">
+    <row r="8" spans="3:6" ht="28.8">
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,52 +613,52 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="3:6" ht="28.8">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="3:6" ht="57.6">
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="3:6" ht="43.2">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="3:6" ht="72">
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="57.6">
+    <row r="11" spans="3:6" ht="28.8">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
